--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2687.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2687.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.162253510898773</v>
+        <v>0.9937563538551331</v>
       </c>
       <c r="B1">
-        <v>2.419889633720155</v>
+        <v>1.917658448219299</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>5.432667255401611</v>
       </c>
       <c r="D1">
-        <v>2.332609569715518</v>
+        <v>2.310971021652222</v>
       </c>
       <c r="E1">
-        <v>1.214897893257962</v>
+        <v>1.298062443733215</v>
       </c>
     </row>
   </sheetData>
